--- a/Code/Results/Cases/Case_0_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.632554177380781</v>
+        <v>3.763632882215974</v>
       </c>
       <c r="D2">
-        <v>8.709276322789549</v>
+        <v>8.260638386953504</v>
       </c>
       <c r="E2">
-        <v>21.68619160426778</v>
+        <v>14.46166996205858</v>
       </c>
       <c r="F2">
-        <v>21.77386500041487</v>
+        <v>30.28390284961943</v>
       </c>
       <c r="G2">
-        <v>40.12417847272031</v>
+        <v>35.39245372831265</v>
       </c>
       <c r="H2">
-        <v>9.826955974055783</v>
+        <v>15.64219040100228</v>
       </c>
       <c r="I2">
-        <v>19.88836234379795</v>
+        <v>22.88485295830392</v>
       </c>
       <c r="J2">
-        <v>13.96408681221723</v>
+        <v>9.925494871914859</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>101.2284386312315</v>
+        <v>59.58928092560715</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.287311988937588</v>
+        <v>3.773333365486835</v>
       </c>
       <c r="D3">
-        <v>8.148391459742125</v>
+        <v>8.141758435685299</v>
       </c>
       <c r="E3">
-        <v>19.82956900770681</v>
+        <v>14.06650873965341</v>
       </c>
       <c r="F3">
-        <v>18.50938394799091</v>
+        <v>30.90958678455896</v>
       </c>
       <c r="G3">
-        <v>35.16503112501784</v>
+        <v>35.82273597497176</v>
       </c>
       <c r="H3">
-        <v>8.63263121956923</v>
+        <v>15.84584562050025</v>
       </c>
       <c r="I3">
-        <v>17.52793032288016</v>
+        <v>23.15637632281554</v>
       </c>
       <c r="J3">
-        <v>12.74329014848339</v>
+        <v>9.808727376801206</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>93.23633048230529</v>
+        <v>56.22032196012083</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.080007481772427</v>
+        <v>3.780616860138308</v>
       </c>
       <c r="D4">
-        <v>7.85787851589795</v>
+        <v>8.068672830321583</v>
       </c>
       <c r="E4">
-        <v>18.69522546332956</v>
+        <v>13.82282467702637</v>
       </c>
       <c r="F4">
-        <v>16.73730273581223</v>
+        <v>31.31789444930932</v>
       </c>
       <c r="G4">
-        <v>32.34944546828379</v>
+        <v>36.13037342602779</v>
       </c>
       <c r="H4">
-        <v>8.034991016154555</v>
+        <v>15.97942013211202</v>
       </c>
       <c r="I4">
-        <v>16.15860374947114</v>
+        <v>23.34027986026106</v>
       </c>
       <c r="J4">
-        <v>12.00071398360352</v>
+        <v>9.740379806031601</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>88.27204528000811</v>
+        <v>54.03936855618517</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.995941507048788</v>
+        <v>3.783913943148021</v>
       </c>
       <c r="D5">
-        <v>7.738352497513393</v>
+        <v>8.038896161685358</v>
       </c>
       <c r="E5">
-        <v>18.23109457778693</v>
+        <v>13.72340242875046</v>
       </c>
       <c r="F5">
-        <v>16.070012291275</v>
+        <v>31.49021488487936</v>
       </c>
       <c r="G5">
-        <v>31.25148849864404</v>
+        <v>36.26623968626305</v>
       </c>
       <c r="H5">
-        <v>7.953041944973771</v>
+        <v>16.03596248773102</v>
       </c>
       <c r="I5">
-        <v>15.61662126082064</v>
+        <v>23.4194300805347</v>
       </c>
       <c r="J5">
-        <v>11.69752403398055</v>
+        <v>9.713389867405112</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>86.22394492696566</v>
+        <v>53.12266142573471</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.981989319089192</v>
+        <v>3.784481154970941</v>
       </c>
       <c r="D6">
-        <v>7.718430610130062</v>
+        <v>8.033953025825241</v>
       </c>
       <c r="E6">
-        <v>18.1538356632823</v>
+        <v>13.70689067280514</v>
       </c>
       <c r="F6">
-        <v>15.96247847156636</v>
+        <v>31.5191830294474</v>
       </c>
       <c r="G6">
-        <v>31.07199144786954</v>
+        <v>36.28942223463248</v>
       </c>
       <c r="H6">
-        <v>7.940811544187736</v>
+        <v>16.0454777306154</v>
       </c>
       <c r="I6">
-        <v>15.52750625001989</v>
+        <v>23.43282381750947</v>
       </c>
       <c r="J6">
-        <v>11.64708902213351</v>
+        <v>9.708960854208124</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85.88208805955189</v>
+        <v>52.96876570586585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.078872908229493</v>
+        <v>3.780659999850255</v>
       </c>
       <c r="D7">
-        <v>7.856271442253586</v>
+        <v>8.068271186664367</v>
       </c>
       <c r="E7">
-        <v>18.688977223951</v>
+        <v>13.82148411695674</v>
       </c>
       <c r="F7">
-        <v>16.72808365912616</v>
+        <v>31.32019457841497</v>
       </c>
       <c r="G7">
-        <v>32.33444593999027</v>
+        <v>36.13216379835021</v>
       </c>
       <c r="H7">
-        <v>8.03379134778735</v>
+        <v>15.98017418511939</v>
       </c>
       <c r="I7">
-        <v>16.15123362744701</v>
+        <v>23.3413304170381</v>
       </c>
       <c r="J7">
-        <v>11.99662999915286</v>
+        <v>9.740012293162156</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>88.24453742687871</v>
+        <v>54.02711821527924</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.511997649160375</v>
+        <v>3.766699200025426</v>
       </c>
       <c r="D8">
-        <v>8.49148976514426</v>
+        <v>8.219685465364085</v>
       </c>
       <c r="E8">
-        <v>21.04248932908439</v>
+        <v>14.32572193553682</v>
       </c>
       <c r="F8">
-        <v>20.59667444838818</v>
+        <v>30.49454324305893</v>
       </c>
       <c r="G8">
-        <v>38.36023223898415</v>
+        <v>35.53154247227013</v>
       </c>
       <c r="H8">
-        <v>9.400393289128555</v>
+        <v>15.71061872863652</v>
       </c>
       <c r="I8">
-        <v>19.0548001449691</v>
+        <v>22.97483738484329</v>
       </c>
       <c r="J8">
-        <v>13.54002519640485</v>
+        <v>9.884551105602256</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>98.47692880833249</v>
+        <v>58.45115253342351</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.455740217915191</v>
+        <v>3.750075874747136</v>
       </c>
       <c r="D9">
-        <v>10.06946502113954</v>
+        <v>8.514602174705242</v>
       </c>
       <c r="E9">
-        <v>25.95317584232616</v>
+        <v>15.30021913750341</v>
       </c>
       <c r="F9">
-        <v>30.49054697638105</v>
+        <v>29.07373096958377</v>
       </c>
       <c r="G9">
-        <v>52.73458257403533</v>
+        <v>34.71754707207322</v>
       </c>
       <c r="H9">
-        <v>12.91074738246496</v>
+        <v>15.25137087594184</v>
       </c>
       <c r="I9">
-        <v>25.72425512909941</v>
+        <v>22.39780556864919</v>
       </c>
       <c r="J9">
-        <v>16.79842451662912</v>
+        <v>10.19361497831874</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>118.9245653737046</v>
+        <v>66.22534478406004</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.394658838638488</v>
+        <v>3.744734586574623</v>
       </c>
       <c r="D10">
-        <v>11.36935602039912</v>
+        <v>8.728413118186094</v>
       </c>
       <c r="E10">
-        <v>30.5799343389255</v>
+        <v>16.0001994963063</v>
       </c>
       <c r="F10">
-        <v>41.06107234442479</v>
+        <v>28.16115452921745</v>
       </c>
       <c r="G10">
-        <v>67.47343970941144</v>
+        <v>34.36749735444975</v>
       </c>
       <c r="H10">
-        <v>16.55443720930506</v>
+        <v>14.95870039765151</v>
       </c>
       <c r="I10">
-        <v>32.38341646839046</v>
+        <v>22.06775261233429</v>
       </c>
       <c r="J10">
-        <v>19.91651771157016</v>
+        <v>10.43500021461604</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>136.9866614937752</v>
+        <v>71.37969834605813</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.07773744287871</v>
+        <v>3.743868004896</v>
       </c>
       <c r="D11">
-        <v>12.17478233876255</v>
+        <v>8.824731285816558</v>
       </c>
       <c r="E11">
-        <v>33.82976961838337</v>
+        <v>16.31384746199258</v>
       </c>
       <c r="F11">
-        <v>48.74515306252412</v>
+        <v>27.7771282010451</v>
       </c>
       <c r="G11">
-        <v>77.9338774250718</v>
+        <v>34.26762603219085</v>
       </c>
       <c r="H11">
-        <v>19.15245993592822</v>
+        <v>14.83585851282431</v>
       </c>
       <c r="I11">
-        <v>37.04161062747935</v>
+        <v>21.9396927577677</v>
       </c>
       <c r="J11">
-        <v>22.12779913965351</v>
+        <v>10.54763707272467</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>148.6934710071993</v>
+        <v>73.60293926670336</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.533660179754358</v>
+        <v>3.743770682705927</v>
       </c>
       <c r="D12">
-        <v>12.6621193372706</v>
+        <v>8.861042612508212</v>
       </c>
       <c r="E12">
-        <v>35.96757459939982</v>
+        <v>16.43183545192176</v>
       </c>
       <c r="F12">
-        <v>53.76605994409717</v>
+        <v>27.63642776952301</v>
       </c>
       <c r="G12">
-        <v>84.65610075483015</v>
+        <v>34.23878322194014</v>
       </c>
       <c r="H12">
-        <v>20.82513562758113</v>
+        <v>14.79087507763598</v>
       </c>
       <c r="I12">
-        <v>40.00937590328399</v>
+        <v>21.89452105407021</v>
       </c>
       <c r="J12">
-        <v>23.58712572785231</v>
+        <v>10.59067267408006</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>155.9081639931523</v>
+        <v>74.42734949238444</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.408043342957624</v>
+        <v>3.743781278324751</v>
       </c>
       <c r="D13">
-        <v>12.53116525708271</v>
+        <v>8.853229940548127</v>
       </c>
       <c r="E13">
-        <v>35.38005059973874</v>
+        <v>16.40646090699686</v>
       </c>
       <c r="F13">
-        <v>52.39446022655033</v>
+        <v>27.66651589710922</v>
       </c>
       <c r="G13">
-        <v>82.82906388641808</v>
+        <v>34.24458901626004</v>
       </c>
       <c r="H13">
-        <v>20.37032750570793</v>
+        <v>14.80049394317562</v>
       </c>
       <c r="I13">
-        <v>39.20474672730418</v>
+        <v>21.90409948523515</v>
       </c>
       <c r="J13">
-        <v>23.18592301814104</v>
+        <v>10.58138755974805</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>153.9650540367595</v>
+        <v>74.2505753950619</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.106956150240938</v>
+        <v>3.743855336709307</v>
       </c>
       <c r="D14">
-        <v>12.20707628287822</v>
+        <v>8.82772203875232</v>
       </c>
       <c r="E14">
-        <v>33.96731593891291</v>
+        <v>16.32357062686687</v>
       </c>
       <c r="F14">
-        <v>49.07020520872124</v>
+        <v>27.76545654681686</v>
       </c>
       <c r="G14">
-        <v>78.37185766633507</v>
+        <v>34.26507076754265</v>
       </c>
       <c r="H14">
-        <v>19.26137912743916</v>
+        <v>14.83212663285595</v>
       </c>
       <c r="I14">
-        <v>37.23557963311482</v>
+        <v>21.93590903089738</v>
       </c>
       <c r="J14">
-        <v>22.22162764556933</v>
+        <v>10.55117011029994</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>149.1695607799892</v>
+        <v>73.67111432492554</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.962820151753061</v>
+        <v>3.743930943204422</v>
       </c>
       <c r="D15">
-        <v>12.04619986509531</v>
+        <v>8.812075821270041</v>
       </c>
       <c r="E15">
-        <v>33.28784994902867</v>
+        <v>16.27269319132276</v>
       </c>
       <c r="F15">
-        <v>47.46305252846985</v>
+        <v>27.82668328219103</v>
       </c>
       <c r="G15">
-        <v>76.20271957909955</v>
+        <v>34.27879813985738</v>
       </c>
       <c r="H15">
-        <v>18.72204248124333</v>
+        <v>14.85170400817478</v>
       </c>
       <c r="I15">
-        <v>36.27410300838675</v>
+        <v>21.95583029165681</v>
       </c>
       <c r="J15">
-        <v>21.75826318492954</v>
+        <v>10.53271014302926</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>146.8020573267028</v>
+        <v>73.31390111996774</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.359591537514127</v>
+        <v>3.744823188419249</v>
       </c>
       <c r="D16">
-        <v>11.32511429082992</v>
+        <v>8.722097194435136</v>
       </c>
       <c r="E16">
-        <v>30.41090516421261</v>
+        <v>15.97959721953352</v>
       </c>
       <c r="F16">
-        <v>40.66387246441509</v>
+        <v>28.18689825325092</v>
       </c>
       <c r="G16">
-        <v>66.92720337843625</v>
+        <v>34.37525675426197</v>
       </c>
       <c r="H16">
-        <v>16.41897986117587</v>
+        <v>14.96694008110065</v>
       </c>
       <c r="I16">
-        <v>32.13876954489263</v>
+        <v>22.0765784131979</v>
       </c>
       <c r="J16">
-        <v>19.80189365069169</v>
+        <v>10.42769397000589</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>136.3544958087389</v>
+        <v>71.23195771146602</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.078318695301437</v>
+        <v>3.745775174537191</v>
       </c>
       <c r="D17">
-        <v>10.95880629407763</v>
+        <v>8.666636922476226</v>
       </c>
       <c r="E17">
-        <v>29.04553979793348</v>
+        <v>15.79849655355542</v>
       </c>
       <c r="F17">
-        <v>37.47743964543606</v>
+        <v>28.41601566832907</v>
       </c>
       <c r="G17">
-        <v>62.5250290887848</v>
+        <v>34.449954287468</v>
       </c>
       <c r="H17">
-        <v>15.32828475050975</v>
+        <v>15.0403076647286</v>
       </c>
       <c r="I17">
-        <v>30.16163025987032</v>
+        <v>22.15641237244655</v>
       </c>
       <c r="J17">
-        <v>18.87779346514018</v>
+        <v>10.36397714132209</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>131.1679575724503</v>
+        <v>69.92361505427385</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.932858781091276</v>
+        <v>3.746469495319036</v>
       </c>
       <c r="D18">
-        <v>10.76103156011827</v>
+        <v>8.634650139394195</v>
       </c>
       <c r="E18">
-        <v>28.33220767776364</v>
+        <v>15.69388773032675</v>
       </c>
       <c r="F18">
-        <v>35.83267890584266</v>
+        <v>28.55070981570385</v>
       </c>
       <c r="G18">
-        <v>60.2382407996371</v>
+        <v>34.49848091630102</v>
       </c>
       <c r="H18">
-        <v>14.76247664616598</v>
+        <v>15.08347239095901</v>
       </c>
       <c r="I18">
-        <v>29.13047906082509</v>
+        <v>22.20440031058893</v>
       </c>
       <c r="J18">
-        <v>18.3963755540307</v>
+        <v>10.32759667466845</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>128.4031303290941</v>
+        <v>69.15965313074592</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.885703362930335</v>
+        <v>3.746729605628381</v>
       </c>
       <c r="D19">
-        <v>10.69564645304738</v>
+        <v>8.623805758846007</v>
       </c>
       <c r="E19">
-        <v>28.0998221215023</v>
+        <v>15.65839576526673</v>
       </c>
       <c r="F19">
-        <v>35.30049456422132</v>
+        <v>28.59680787022344</v>
       </c>
       <c r="G19">
-        <v>59.49610662231611</v>
+        <v>34.51585292155796</v>
       </c>
       <c r="H19">
-        <v>14.57898388991033</v>
+        <v>15.09825149521892</v>
       </c>
       <c r="I19">
-        <v>28.79519601575253</v>
+        <v>22.22099925156579</v>
       </c>
       <c r="J19">
-        <v>18.23975972659665</v>
+        <v>10.31532561461797</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>127.4944921503376</v>
+        <v>68.89902517873843</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.106377386607408</v>
+        <v>3.745658601245682</v>
       </c>
       <c r="D20">
-        <v>10.99628755238926</v>
+        <v>8.672550013942386</v>
       </c>
       <c r="E20">
-        <v>29.1825487303337</v>
+        <v>15.81782176991756</v>
       </c>
       <c r="F20">
-        <v>37.79510667381946</v>
+        <v>28.39132263649354</v>
       </c>
       <c r="G20">
-        <v>62.96553465517466</v>
+        <v>34.44142366470096</v>
       </c>
       <c r="H20">
-        <v>15.43734174566659</v>
+        <v>15.03239724324604</v>
       </c>
       <c r="I20">
-        <v>30.35992953573107</v>
+        <v>22.14769867163672</v>
       </c>
       <c r="J20">
-        <v>18.97037118226778</v>
+        <v>10.3707323719723</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>131.694731308605</v>
+        <v>70.06407432050506</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.18454372452609</v>
+        <v>3.743827270151343</v>
       </c>
       <c r="D21">
-        <v>12.29207458061444</v>
+        <v>8.835218934946036</v>
       </c>
       <c r="E21">
-        <v>34.33212659706126</v>
+        <v>16.34793949767442</v>
       </c>
       <c r="F21">
-        <v>49.93137744092857</v>
+        <v>27.73626502507879</v>
       </c>
       <c r="G21">
-        <v>79.53039138721859</v>
+        <v>34.25880775604897</v>
       </c>
       <c r="H21">
-        <v>19.54953428778737</v>
+        <v>14.82279326447054</v>
       </c>
       <c r="I21">
-        <v>37.74825463234631</v>
+        <v>21.92647446072735</v>
       </c>
       <c r="J21">
-        <v>22.47054605752643</v>
+        <v>10.56003551941077</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>150.4244302823829</v>
+        <v>73.84179049866233</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.18454372452609</v>
+        <v>3.743978788686041</v>
       </c>
       <c r="D22">
-        <v>12.29207458061444</v>
+        <v>8.940575374883625</v>
       </c>
       <c r="E22">
-        <v>34.33212659706126</v>
+        <v>16.68979693270017</v>
       </c>
       <c r="F22">
-        <v>49.93137744092857</v>
+        <v>27.3358033263752</v>
       </c>
       <c r="G22">
-        <v>79.53039138721859</v>
+        <v>34.1919680064177</v>
       </c>
       <c r="H22">
-        <v>19.54953428778737</v>
+        <v>14.69477439392018</v>
       </c>
       <c r="I22">
-        <v>37.74825463234631</v>
+        <v>21.80132377780873</v>
       </c>
       <c r="J22">
-        <v>22.47054605752643</v>
+        <v>10.68597451180626</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>150.4244302823829</v>
+        <v>76.20885922383106</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.18454372452609</v>
+        <v>3.743772500247115</v>
       </c>
       <c r="D23">
-        <v>12.29207458061444</v>
+        <v>8.884440581034855</v>
       </c>
       <c r="E23">
-        <v>34.33212659706126</v>
+        <v>16.50779171881645</v>
       </c>
       <c r="F23">
-        <v>49.93137744092857</v>
+        <v>27.54691825302253</v>
       </c>
       <c r="G23">
-        <v>79.53039138721859</v>
+        <v>34.22269682038805</v>
       </c>
       <c r="H23">
-        <v>19.54953428778737</v>
+        <v>14.76226112660069</v>
       </c>
       <c r="I23">
-        <v>37.74825463234631</v>
+        <v>21.86629180288943</v>
       </c>
       <c r="J23">
-        <v>22.47054605752643</v>
+        <v>10.61856342306964</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>150.4244302823829</v>
+        <v>74.95482845473963</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.18454372452609</v>
+        <v>3.745710846579929</v>
       </c>
       <c r="D24">
-        <v>12.29207458061444</v>
+        <v>8.669877020781287</v>
       </c>
       <c r="E24">
-        <v>34.33212659706126</v>
+        <v>15.80908636347386</v>
       </c>
       <c r="F24">
-        <v>49.93137744092857</v>
+        <v>28.40247711915426</v>
       </c>
       <c r="G24">
-        <v>79.53039138721859</v>
+        <v>34.44526300604506</v>
       </c>
       <c r="H24">
-        <v>19.54953428778737</v>
+        <v>15.03597048161823</v>
       </c>
       <c r="I24">
-        <v>37.74825463234631</v>
+        <v>22.15163163589706</v>
       </c>
       <c r="J24">
-        <v>22.47054605752643</v>
+        <v>10.36767754794465</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>150.4244302823829</v>
+        <v>70.00060937182494</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.18454372452609</v>
+        <v>3.753389604066787</v>
       </c>
       <c r="D25">
-        <v>12.29207458061444</v>
+        <v>8.435207232307592</v>
       </c>
       <c r="E25">
-        <v>34.33212659706126</v>
+        <v>15.03891367347362</v>
       </c>
       <c r="F25">
-        <v>49.93137744092857</v>
+        <v>29.43586036954019</v>
       </c>
       <c r="G25">
-        <v>79.53039138721859</v>
+        <v>34.8960965659233</v>
       </c>
       <c r="H25">
-        <v>19.54953428778737</v>
+        <v>15.36794130023386</v>
       </c>
       <c r="I25">
-        <v>37.74825463234631</v>
+        <v>22.53798091075377</v>
       </c>
       <c r="J25">
-        <v>22.47054605752643</v>
+        <v>10.10739439017206</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>150.4244302823829</v>
+        <v>64.21974629959919</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.763632882215974</v>
+        <v>3.632554177380767</v>
       </c>
       <c r="D2">
-        <v>8.260638386953504</v>
+        <v>8.709276322789568</v>
       </c>
       <c r="E2">
-        <v>14.46166996205858</v>
+        <v>21.68619160426776</v>
       </c>
       <c r="F2">
-        <v>30.28390284961943</v>
+        <v>21.77386500041473</v>
       </c>
       <c r="G2">
-        <v>35.39245372831265</v>
+        <v>40.12417847272</v>
       </c>
       <c r="H2">
-        <v>15.64219040100228</v>
+        <v>9.826955974055712</v>
       </c>
       <c r="I2">
-        <v>22.88485295830392</v>
+        <v>19.88836234379783</v>
       </c>
       <c r="J2">
-        <v>9.925494871914859</v>
+        <v>13.96408681221719</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>59.58928092560715</v>
+        <v>101.2284386312315</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.773333365486835</v>
+        <v>3.287311988937511</v>
       </c>
       <c r="D3">
-        <v>8.141758435685299</v>
+        <v>8.148391459742152</v>
       </c>
       <c r="E3">
-        <v>14.06650873965341</v>
+        <v>19.82956900770676</v>
       </c>
       <c r="F3">
-        <v>30.90958678455896</v>
+        <v>18.50938394799063</v>
       </c>
       <c r="G3">
-        <v>35.82273597497176</v>
+        <v>35.16503112501748</v>
       </c>
       <c r="H3">
-        <v>15.84584562050025</v>
+        <v>8.632631219569133</v>
       </c>
       <c r="I3">
-        <v>23.15637632281554</v>
+        <v>17.52793032287999</v>
       </c>
       <c r="J3">
-        <v>9.808727376801206</v>
+        <v>12.74329014848337</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>56.22032196012083</v>
+        <v>93.23633048230514</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.780616860138308</v>
+        <v>3.080007481772435</v>
       </c>
       <c r="D4">
-        <v>8.068672830321583</v>
+        <v>7.857878515897915</v>
       </c>
       <c r="E4">
-        <v>13.82282467702637</v>
+        <v>18.69522546332955</v>
       </c>
       <c r="F4">
-        <v>31.31789444930932</v>
+        <v>16.73730273581217</v>
       </c>
       <c r="G4">
-        <v>36.13037342602779</v>
+        <v>32.34944546828365</v>
       </c>
       <c r="H4">
-        <v>15.97942013211202</v>
+        <v>8.034991016154549</v>
       </c>
       <c r="I4">
-        <v>23.34027986026106</v>
+        <v>16.15860374947109</v>
       </c>
       <c r="J4">
-        <v>9.740379806031601</v>
+        <v>12.00071398360348</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>54.03936855618517</v>
+        <v>88.27204528000813</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.783913943148021</v>
+        <v>2.995941507048931</v>
       </c>
       <c r="D5">
-        <v>8.038896161685358</v>
+        <v>7.738352497513416</v>
       </c>
       <c r="E5">
-        <v>13.72340242875046</v>
+        <v>18.23109457778706</v>
       </c>
       <c r="F5">
-        <v>31.49021488487936</v>
+        <v>16.07001229127511</v>
       </c>
       <c r="G5">
-        <v>36.26623968626305</v>
+        <v>31.25148849864416</v>
       </c>
       <c r="H5">
-        <v>16.03596248773102</v>
+        <v>7.95304194497368</v>
       </c>
       <c r="I5">
-        <v>23.4194300805347</v>
+        <v>15.61662126082074</v>
       </c>
       <c r="J5">
-        <v>9.713389867405112</v>
+        <v>11.69752403398062</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>53.12266142573471</v>
+        <v>86.2239449269661</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.784481154970941</v>
+        <v>2.981989319089148</v>
       </c>
       <c r="D6">
-        <v>8.033953025825241</v>
+        <v>7.718430610130024</v>
       </c>
       <c r="E6">
-        <v>13.70689067280514</v>
+        <v>18.15383566328233</v>
       </c>
       <c r="F6">
-        <v>31.5191830294474</v>
+        <v>15.96247847156638</v>
       </c>
       <c r="G6">
-        <v>36.28942223463248</v>
+        <v>31.07199144786954</v>
       </c>
       <c r="H6">
-        <v>16.0454777306154</v>
+        <v>7.940811544187677</v>
       </c>
       <c r="I6">
-        <v>23.43282381750947</v>
+        <v>15.52750625001989</v>
       </c>
       <c r="J6">
-        <v>9.708960854208124</v>
+        <v>11.64708902213354</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.96876570586585</v>
+        <v>85.88208805955185</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.780659999850255</v>
+        <v>3.078872908229552</v>
       </c>
       <c r="D7">
-        <v>8.068271186664367</v>
+        <v>7.85627144225358</v>
       </c>
       <c r="E7">
-        <v>13.82148411695674</v>
+        <v>18.68897722395103</v>
       </c>
       <c r="F7">
-        <v>31.32019457841497</v>
+        <v>16.72808365912617</v>
       </c>
       <c r="G7">
-        <v>36.13216379835021</v>
+        <v>32.33444593999025</v>
       </c>
       <c r="H7">
-        <v>15.98017418511939</v>
+        <v>8.033791347787341</v>
       </c>
       <c r="I7">
-        <v>23.3413304170381</v>
+        <v>16.15123362744702</v>
       </c>
       <c r="J7">
-        <v>9.740012293162156</v>
+        <v>11.99662999915284</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>54.02711821527924</v>
+        <v>88.24453742687872</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.766699200025426</v>
+        <v>3.511997649160666</v>
       </c>
       <c r="D8">
-        <v>8.219685465364085</v>
+        <v>8.491489765144285</v>
       </c>
       <c r="E8">
-        <v>14.32572193553682</v>
+        <v>21.04248932908438</v>
       </c>
       <c r="F8">
-        <v>30.49454324305893</v>
+        <v>20.59667444838861</v>
       </c>
       <c r="G8">
-        <v>35.53154247227013</v>
+        <v>38.36023223898481</v>
       </c>
       <c r="H8">
-        <v>15.71061872863652</v>
+        <v>9.400393289128674</v>
       </c>
       <c r="I8">
-        <v>22.97483738484329</v>
+        <v>19.05480014496933</v>
       </c>
       <c r="J8">
-        <v>9.884551105602256</v>
+        <v>13.54002519640483</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.45115253342351</v>
+        <v>98.47692880833257</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.750075874747136</v>
+        <v>4.455740217915258</v>
       </c>
       <c r="D9">
-        <v>8.514602174705242</v>
+        <v>10.06946502113951</v>
       </c>
       <c r="E9">
-        <v>15.30021913750341</v>
+        <v>25.95317584232621</v>
       </c>
       <c r="F9">
-        <v>29.07373096958377</v>
+        <v>30.49054697638131</v>
       </c>
       <c r="G9">
-        <v>34.71754707207322</v>
+        <v>52.73458257403559</v>
       </c>
       <c r="H9">
-        <v>15.25137087594184</v>
+        <v>12.91074738246502</v>
       </c>
       <c r="I9">
-        <v>22.39780556864919</v>
+        <v>25.72425512909956</v>
       </c>
       <c r="J9">
-        <v>10.19361497831874</v>
+        <v>16.79842451662917</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66.22534478406004</v>
+        <v>118.9245653737048</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.744734586574623</v>
+        <v>5.394658838638386</v>
       </c>
       <c r="D10">
-        <v>8.728413118186094</v>
+        <v>11.36935602039913</v>
       </c>
       <c r="E10">
-        <v>16.0001994963063</v>
+        <v>30.57993433892555</v>
       </c>
       <c r="F10">
-        <v>28.16115452921745</v>
+        <v>41.06107234442501</v>
       </c>
       <c r="G10">
-        <v>34.36749735444975</v>
+        <v>67.47343970941154</v>
       </c>
       <c r="H10">
-        <v>14.95870039765151</v>
+        <v>16.55443720930511</v>
       </c>
       <c r="I10">
-        <v>22.06775261233429</v>
+        <v>32.38341646839056</v>
       </c>
       <c r="J10">
-        <v>10.43500021461604</v>
+        <v>19.91651771157018</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.37969834605813</v>
+        <v>136.9866614937753</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.743868004896</v>
+        <v>6.0777374428786</v>
       </c>
       <c r="D11">
-        <v>8.824731285816558</v>
+        <v>12.17478233876249</v>
       </c>
       <c r="E11">
-        <v>16.31384746199258</v>
+        <v>33.82976961838322</v>
       </c>
       <c r="F11">
-        <v>27.7771282010451</v>
+        <v>48.7451530625241</v>
       </c>
       <c r="G11">
-        <v>34.26762603219085</v>
+        <v>77.9338774250718</v>
       </c>
       <c r="H11">
-        <v>14.83585851282431</v>
+        <v>19.15245993592822</v>
       </c>
       <c r="I11">
-        <v>21.9396927577677</v>
+        <v>37.04161062747931</v>
       </c>
       <c r="J11">
-        <v>10.54763707272467</v>
+        <v>22.12779913965344</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.60293926670336</v>
+        <v>148.6934710071989</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.743770682705927</v>
+        <v>6.533660179754463</v>
       </c>
       <c r="D12">
-        <v>8.861042612508212</v>
+        <v>12.66211933727059</v>
       </c>
       <c r="E12">
-        <v>16.43183545192176</v>
+        <v>35.96757459939946</v>
       </c>
       <c r="F12">
-        <v>27.63642776952301</v>
+        <v>53.76605994409576</v>
       </c>
       <c r="G12">
-        <v>34.23878322194014</v>
+        <v>84.65610075482812</v>
       </c>
       <c r="H12">
-        <v>14.79087507763598</v>
+        <v>20.82513562758059</v>
       </c>
       <c r="I12">
-        <v>21.89452105407021</v>
+        <v>40.00937590328309</v>
       </c>
       <c r="J12">
-        <v>10.59067267408006</v>
+        <v>23.58712572785204</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.42734949238444</v>
+        <v>155.908163993151</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.743781278324751</v>
+        <v>6.408043342957523</v>
       </c>
       <c r="D13">
-        <v>8.853229940548127</v>
+        <v>12.5311652570827</v>
       </c>
       <c r="E13">
-        <v>16.40646090699686</v>
+        <v>35.3800505997384</v>
       </c>
       <c r="F13">
-        <v>27.66651589710922</v>
+        <v>52.39446022654934</v>
       </c>
       <c r="G13">
-        <v>34.24458901626004</v>
+        <v>82.82906388641648</v>
       </c>
       <c r="H13">
-        <v>14.80049394317562</v>
+        <v>20.37032750570764</v>
       </c>
       <c r="I13">
-        <v>21.90409948523515</v>
+        <v>39.20474672730361</v>
       </c>
       <c r="J13">
-        <v>10.58138755974805</v>
+        <v>23.18592301814076</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74.2505753950619</v>
+        <v>153.965054036758</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.743855336709307</v>
+        <v>6.106956150240944</v>
       </c>
       <c r="D14">
-        <v>8.82772203875232</v>
+        <v>12.20707628287829</v>
       </c>
       <c r="E14">
-        <v>16.32357062686687</v>
+        <v>33.96731593891318</v>
       </c>
       <c r="F14">
-        <v>27.76545654681686</v>
+        <v>49.07020520872179</v>
       </c>
       <c r="G14">
-        <v>34.26507076754265</v>
+        <v>78.37185766633577</v>
       </c>
       <c r="H14">
-        <v>14.83212663285595</v>
+        <v>19.26137912743928</v>
       </c>
       <c r="I14">
-        <v>21.93590903089738</v>
+        <v>37.23557963311512</v>
       </c>
       <c r="J14">
-        <v>10.55117011029994</v>
+        <v>22.22162764556944</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.67111432492554</v>
+        <v>149.1695607799896</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.743930943204422</v>
+        <v>5.962820151753073</v>
       </c>
       <c r="D15">
-        <v>8.812075821270041</v>
+        <v>12.04619986509528</v>
       </c>
       <c r="E15">
-        <v>16.27269319132276</v>
+        <v>33.28784994902861</v>
       </c>
       <c r="F15">
-        <v>27.82668328219103</v>
+        <v>47.46305252847014</v>
       </c>
       <c r="G15">
-        <v>34.27879813985738</v>
+        <v>76.20271957910013</v>
       </c>
       <c r="H15">
-        <v>14.85170400817478</v>
+        <v>18.7220424812434</v>
       </c>
       <c r="I15">
-        <v>21.95583029165681</v>
+        <v>36.27410300838697</v>
       </c>
       <c r="J15">
-        <v>10.53271014302926</v>
+        <v>21.75826318492951</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.31390111996774</v>
+        <v>146.8020573267026</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.744823188419249</v>
+        <v>5.359591537514043</v>
       </c>
       <c r="D16">
-        <v>8.722097194435136</v>
+        <v>11.32511429083001</v>
       </c>
       <c r="E16">
-        <v>15.97959721953352</v>
+        <v>30.41090516421264</v>
       </c>
       <c r="F16">
-        <v>28.18689825325092</v>
+        <v>40.66387246441478</v>
       </c>
       <c r="G16">
-        <v>34.37525675426197</v>
+        <v>66.92720337843562</v>
       </c>
       <c r="H16">
-        <v>14.96694008110065</v>
+        <v>16.41897986117567</v>
       </c>
       <c r="I16">
-        <v>22.0765784131979</v>
+        <v>32.13876954489236</v>
       </c>
       <c r="J16">
-        <v>10.42769397000589</v>
+        <v>19.80189365069166</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.23195771146602</v>
+        <v>136.3544958087387</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.745775174537191</v>
+        <v>5.078318695301337</v>
       </c>
       <c r="D17">
-        <v>8.666636922476226</v>
+        <v>10.95880629407762</v>
       </c>
       <c r="E17">
-        <v>15.79849655355542</v>
+        <v>29.04553979793349</v>
       </c>
       <c r="F17">
-        <v>28.41601566832907</v>
+        <v>37.47743964543598</v>
       </c>
       <c r="G17">
-        <v>34.449954287468</v>
+        <v>62.52502908878479</v>
       </c>
       <c r="H17">
-        <v>15.0403076647286</v>
+        <v>15.32828475050971</v>
       </c>
       <c r="I17">
-        <v>22.15641237244655</v>
+        <v>30.16163025987032</v>
       </c>
       <c r="J17">
-        <v>10.36397714132209</v>
+        <v>18.87779346514021</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.92361505427385</v>
+        <v>131.1679575724504</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.746469495319036</v>
+        <v>4.932858781091294</v>
       </c>
       <c r="D18">
-        <v>8.634650139394195</v>
+        <v>10.76103156011832</v>
       </c>
       <c r="E18">
-        <v>15.69388773032675</v>
+        <v>28.33220767776376</v>
       </c>
       <c r="F18">
-        <v>28.55070981570385</v>
+        <v>35.83267890584229</v>
       </c>
       <c r="G18">
-        <v>34.49848091630102</v>
+        <v>60.23824079963639</v>
       </c>
       <c r="H18">
-        <v>15.08347239095901</v>
+        <v>14.76247664616583</v>
       </c>
       <c r="I18">
-        <v>22.20440031058893</v>
+        <v>29.13047906082477</v>
       </c>
       <c r="J18">
-        <v>10.32759667466845</v>
+        <v>18.39637555403073</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.15965313074592</v>
+        <v>128.4031303290942</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.746729605628381</v>
+        <v>4.885703362930435</v>
       </c>
       <c r="D19">
-        <v>8.623805758846007</v>
+        <v>10.69564645304739</v>
       </c>
       <c r="E19">
-        <v>15.65839576526673</v>
+        <v>28.09982212150234</v>
       </c>
       <c r="F19">
-        <v>28.59680787022344</v>
+        <v>35.30049456422185</v>
       </c>
       <c r="G19">
-        <v>34.51585292155796</v>
+        <v>59.49610662231665</v>
       </c>
       <c r="H19">
-        <v>15.09825149521892</v>
+        <v>14.57898388991052</v>
       </c>
       <c r="I19">
-        <v>22.22099925156579</v>
+        <v>28.79519601575283</v>
       </c>
       <c r="J19">
-        <v>10.31532561461797</v>
+        <v>18.23975972659668</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68.89902517873843</v>
+        <v>127.4944921503378</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.745658601245682</v>
+        <v>5.106377386607462</v>
       </c>
       <c r="D20">
-        <v>8.672550013942386</v>
+        <v>10.99628755238927</v>
       </c>
       <c r="E20">
-        <v>15.81782176991756</v>
+        <v>29.18254873033367</v>
       </c>
       <c r="F20">
-        <v>28.39132263649354</v>
+        <v>37.7951066738192</v>
       </c>
       <c r="G20">
-        <v>34.44142366470096</v>
+        <v>62.96553465517428</v>
       </c>
       <c r="H20">
-        <v>15.03239724324604</v>
+        <v>15.43734174566649</v>
       </c>
       <c r="I20">
-        <v>22.14769867163672</v>
+        <v>30.35992953573086</v>
       </c>
       <c r="J20">
-        <v>10.3707323719723</v>
+        <v>18.9703711822677</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>70.06407432050506</v>
+        <v>131.6947313086049</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.743827270151343</v>
+        <v>6.184543724525972</v>
       </c>
       <c r="D21">
-        <v>8.835218934946036</v>
+        <v>12.29207458061443</v>
       </c>
       <c r="E21">
-        <v>16.34793949767442</v>
+        <v>34.33212659706123</v>
       </c>
       <c r="F21">
-        <v>27.73626502507879</v>
+        <v>49.93137744092785</v>
       </c>
       <c r="G21">
-        <v>34.25880775604897</v>
+        <v>79.53039138721752</v>
       </c>
       <c r="H21">
-        <v>14.82279326447054</v>
+        <v>19.54953428778702</v>
       </c>
       <c r="I21">
-        <v>21.92647446072735</v>
+        <v>37.74825463234581</v>
       </c>
       <c r="J21">
-        <v>10.56003551941077</v>
+        <v>22.47054605752641</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.84179049866233</v>
+        <v>150.4244302823824</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.743978788686041</v>
+        <v>6.184543724525972</v>
       </c>
       <c r="D22">
-        <v>8.940575374883625</v>
+        <v>12.29207458061443</v>
       </c>
       <c r="E22">
-        <v>16.68979693270017</v>
+        <v>34.33212659706123</v>
       </c>
       <c r="F22">
-        <v>27.3358033263752</v>
+        <v>49.93137744092785</v>
       </c>
       <c r="G22">
-        <v>34.1919680064177</v>
+        <v>79.53039138721752</v>
       </c>
       <c r="H22">
-        <v>14.69477439392018</v>
+        <v>19.54953428778702</v>
       </c>
       <c r="I22">
-        <v>21.80132377780873</v>
+        <v>37.74825463234581</v>
       </c>
       <c r="J22">
-        <v>10.68597451180626</v>
+        <v>22.47054605752641</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>76.20885922383106</v>
+        <v>150.4244302823824</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.743772500247115</v>
+        <v>6.184543724525972</v>
       </c>
       <c r="D23">
-        <v>8.884440581034855</v>
+        <v>12.29207458061443</v>
       </c>
       <c r="E23">
-        <v>16.50779171881645</v>
+        <v>34.33212659706123</v>
       </c>
       <c r="F23">
-        <v>27.54691825302253</v>
+        <v>49.93137744092785</v>
       </c>
       <c r="G23">
-        <v>34.22269682038805</v>
+        <v>79.53039138721752</v>
       </c>
       <c r="H23">
-        <v>14.76226112660069</v>
+        <v>19.54953428778702</v>
       </c>
       <c r="I23">
-        <v>21.86629180288943</v>
+        <v>37.74825463234581</v>
       </c>
       <c r="J23">
-        <v>10.61856342306964</v>
+        <v>22.47054605752641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.95482845473963</v>
+        <v>150.4244302823824</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.745710846579929</v>
+        <v>6.184543724525972</v>
       </c>
       <c r="D24">
-        <v>8.669877020781287</v>
+        <v>12.29207458061443</v>
       </c>
       <c r="E24">
-        <v>15.80908636347386</v>
+        <v>34.33212659706123</v>
       </c>
       <c r="F24">
-        <v>28.40247711915426</v>
+        <v>49.93137744092785</v>
       </c>
       <c r="G24">
-        <v>34.44526300604506</v>
+        <v>79.53039138721752</v>
       </c>
       <c r="H24">
-        <v>15.03597048161823</v>
+        <v>19.54953428778702</v>
       </c>
       <c r="I24">
-        <v>22.15163163589706</v>
+        <v>37.74825463234581</v>
       </c>
       <c r="J24">
-        <v>10.36767754794465</v>
+        <v>22.47054605752641</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>70.00060937182494</v>
+        <v>150.4244302823824</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.753389604066787</v>
+        <v>6.184543724525972</v>
       </c>
       <c r="D25">
-        <v>8.435207232307592</v>
+        <v>12.29207458061443</v>
       </c>
       <c r="E25">
-        <v>15.03891367347362</v>
+        <v>34.33212659706123</v>
       </c>
       <c r="F25">
-        <v>29.43586036954019</v>
+        <v>49.93137744092785</v>
       </c>
       <c r="G25">
-        <v>34.8960965659233</v>
+        <v>79.53039138721752</v>
       </c>
       <c r="H25">
-        <v>15.36794130023386</v>
+        <v>19.54953428778702</v>
       </c>
       <c r="I25">
-        <v>22.53798091075377</v>
+        <v>37.74825463234581</v>
       </c>
       <c r="J25">
-        <v>10.10739439017206</v>
+        <v>22.47054605752641</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>64.21974629959919</v>
+        <v>150.4244302823824</v>
       </c>
       <c r="N25">
         <v>0</v>
